--- a/samples/scripting/Book2.xlsx
+++ b/samples/scripting/Book2.xlsx
@@ -15,81 +15,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>Ich will kündigen</t>
-  </si>
-  <si>
-    <t>Was genau?</t>
-  </si>
-  <si>
-    <t>Telefonie</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Möchten Sie….?</t>
-  </si>
-  <si>
-    <t>Hier können Sie kündigen</t>
-  </si>
-  <si>
-    <t>Kündigung</t>
-  </si>
-  <si>
-    <t>Zusatzpaket</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Rufen Sie an….</t>
-  </si>
-  <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>jo</t>
-  </si>
-  <si>
-    <t>sicher</t>
-  </si>
-  <si>
-    <t>klar</t>
-  </si>
-  <si>
-    <t>klaro</t>
-  </si>
-  <si>
     <t>REFCODE</t>
   </si>
   <si>
     <t>UTTERANCE</t>
   </si>
   <si>
-    <t>NEIN</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>sicher nicht</t>
-  </si>
-  <si>
-    <t>nein danke</t>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>GREETING</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>nice day</t>
+  </si>
+  <si>
+    <t>where is the next restaurant</t>
+  </si>
+  <si>
+    <t>Of course. Do you have a specific cuisine in mind?</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>Super! I've found 5 locations for you. Which one would you like to drive to?</t>
+  </si>
+  <si>
+    <t>Sure! Restaurant 1 on the list gets great reviews.</t>
+  </si>
+  <si>
+    <t>What day/time did you want to go to the restaurant?</t>
+  </si>
+  <si>
+    <t>10th of january</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
 </sst>
 </file>
@@ -139,11 +124,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,82 +440,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>2</v>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -531,71 +523,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
